--- a/_mapFigure/excess_table.xlsx
+++ b/_mapFigure/excess_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru48fak\Documents\GitHub\excess-mortality-world\_mapFigure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_mapFigure/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6349F285-7171-DC44-85EE-77EEF1939E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="14508"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Country</t>
   </si>
@@ -549,12 +550,48 @@
   </si>
   <si>
     <t>(+14.1%, +17.4%)</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>17.4M</t>
+  </si>
+  <si>
+    <t>(+1.9%, +7.9%)</t>
+  </si>
+  <si>
+    <t>325,475</t>
+  </si>
+  <si>
+    <t>339,650</t>
+  </si>
+  <si>
+    <t>14,175</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>23.6M</t>
+  </si>
+  <si>
+    <t>383,471</t>
+  </si>
+  <si>
+    <t>357,239</t>
+  </si>
+  <si>
+    <t>-26,232</t>
+  </si>
+  <si>
+    <t>(-10.4%, -3.2%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,8 +623,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,682 +904,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.22800000000000001</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>7.8E-2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-3.1E-2</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>2.4E-2</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2E-3</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-5.8000000000000003E-2</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>-4.2999999999999997E-2</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>111</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>-1.2E-2</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" t="s">
         <v>125</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="1">
         <v>-7.1999999999999995E-2</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="1">
         <v>-5.0999999999999997E-2</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" t="s">
         <v>135</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" t="s">
         <v>136</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="1">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G24" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>139</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F25" s="1">
         <v>-9.0999999999999998E-2</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" t="s">
         <v>146</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" t="s">
         <v>147</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" t="s">
         <v>148</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" t="s">
         <v>149</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F26" s="1">
         <v>0.04</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" t="s">
         <v>153</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F27" s="1">
         <v>-1.4E-2</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" t="s">
         <v>158</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F28" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" t="s">
         <v>166</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F30" s="1">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" t="s">
         <v>171</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F31" s="1">
         <v>0.156</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G31" t="s">
         <v>174</v>
       </c>
     </row>
